--- a/contratos/contratos-1-2013.xlsx
+++ b/contratos/contratos-1-2013.xlsx
@@ -694,7 +694,7 @@
     <t>DISTRIBUIDORA ROCCA S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
@@ -820,10 +820,10 @@
     <t>VALENZUELA NESTOR GABRIEL</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -856,7 +856,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BOZZI GUSTAVO LEONARDO</t>
@@ -874,7 +874,7 @@
     <t>CORDOBA JORGE LUIS</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>FERREYRA EDUARDO FEDERICO</t>
@@ -979,7 +979,7 @@
     <t>RULEMANES LITORAL S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1369,676 +1369,676 @@
     <t>11</t>
   </si>
   <si>
-    <t>4.516,00</t>
-  </si>
-  <si>
-    <t>20.340,21</t>
-  </si>
-  <si>
-    <t>249.977,00</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>1.490,00</t>
-  </si>
-  <si>
-    <t>180,48</t>
-  </si>
-  <si>
-    <t>15.420,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>178.588,01</t>
-  </si>
-  <si>
-    <t>78.935,95</t>
-  </si>
-  <si>
-    <t>7.482,50</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>54.839,53</t>
-  </si>
-  <si>
-    <t>6.293,00</t>
-  </si>
-  <si>
-    <t>6.725,80</t>
-  </si>
-  <si>
-    <t>24.264,27</t>
-  </si>
-  <si>
-    <t>1.371,50</t>
-  </si>
-  <si>
-    <t>15.193,67</t>
-  </si>
-  <si>
-    <t>14.715,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>341,00</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>713,70</t>
-  </si>
-  <si>
-    <t>354,65</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>4.744,00</t>
-  </si>
-  <si>
-    <t>522,15</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>43.295,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>72.594,26</t>
-  </si>
-  <si>
-    <t>1.304,90</t>
-  </si>
-  <si>
-    <t>2.568,42</t>
-  </si>
-  <si>
-    <t>269,44</t>
-  </si>
-  <si>
-    <t>323,64</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>50.190,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>50,30</t>
-  </si>
-  <si>
-    <t>33.783,00</t>
-  </si>
-  <si>
-    <t>958,74</t>
-  </si>
-  <si>
-    <t>649,00</t>
-  </si>
-  <si>
-    <t>619,00</t>
-  </si>
-  <si>
-    <t>53.629,97</t>
-  </si>
-  <si>
-    <t>222,99</t>
-  </si>
-  <si>
-    <t>5.105,03</t>
-  </si>
-  <si>
-    <t>1.720,00</t>
-  </si>
-  <si>
-    <t>9.273,50</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>2.334,57</t>
-  </si>
-  <si>
-    <t>6.341,42</t>
-  </si>
-  <si>
-    <t>6.766,60</t>
-  </si>
-  <si>
-    <t>47.786,10</t>
-  </si>
-  <si>
-    <t>4.935,50</t>
-  </si>
-  <si>
-    <t>33.100,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>4.716,35</t>
-  </si>
-  <si>
-    <t>109,80</t>
-  </si>
-  <si>
-    <t>423,50</t>
-  </si>
-  <si>
-    <t>32.256,00</t>
-  </si>
-  <si>
-    <t>12.082,72</t>
-  </si>
-  <si>
-    <t>32,00</t>
-  </si>
-  <si>
-    <t>608,14</t>
-  </si>
-  <si>
-    <t>3.206,84</t>
-  </si>
-  <si>
-    <t>620,77</t>
-  </si>
-  <si>
-    <t>2.230,30</t>
-  </si>
-  <si>
-    <t>645,97</t>
-  </si>
-  <si>
-    <t>3.082,00</t>
-  </si>
-  <si>
-    <t>311,00</t>
-  </si>
-  <si>
-    <t>2.641,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>14.560,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>12.216,34</t>
-  </si>
-  <si>
-    <t>43.010,74</t>
-  </si>
-  <si>
-    <t>525,71</t>
-  </si>
-  <si>
-    <t>39,30</t>
-  </si>
-  <si>
-    <t>1.667,01</t>
-  </si>
-  <si>
-    <t>96,71</t>
-  </si>
-  <si>
-    <t>5,64</t>
-  </si>
-  <si>
-    <t>36.106,68</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>20.890,00</t>
-  </si>
-  <si>
-    <t>5.292,50</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>10.960,00</t>
-  </si>
-  <si>
-    <t>7.457,00</t>
-  </si>
-  <si>
-    <t>1.593,64</t>
-  </si>
-  <si>
-    <t>15.641,00</t>
-  </si>
-  <si>
-    <t>1.480,50</t>
-  </si>
-  <si>
-    <t>6.875,00</t>
-  </si>
-  <si>
-    <t>33,10</t>
-  </si>
-  <si>
-    <t>5.127,00</t>
-  </si>
-  <si>
-    <t>3.179,62</t>
-  </si>
-  <si>
-    <t>3.854,00</t>
-  </si>
-  <si>
-    <t>71,50</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>92.500,00</t>
-  </si>
-  <si>
-    <t>1,65</t>
-  </si>
-  <si>
-    <t>2.376,44</t>
-  </si>
-  <si>
-    <t>55,37</t>
-  </si>
-  <si>
-    <t>293,30</t>
-  </si>
-  <si>
-    <t>4.030,00</t>
-  </si>
-  <si>
-    <t>719,00</t>
-  </si>
-  <si>
-    <t>6.011,41</t>
-  </si>
-  <si>
-    <t>7.488,99</t>
-  </si>
-  <si>
-    <t>3.351,75</t>
-  </si>
-  <si>
-    <t>2.292,00</t>
-  </si>
-  <si>
-    <t>2.135,75</t>
-  </si>
-  <si>
-    <t>157,32</t>
-  </si>
-  <si>
-    <t>3.760,85</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>701,43</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>180,17</t>
-  </si>
-  <si>
-    <t>56,44</t>
-  </si>
-  <si>
-    <t>20.688,00</t>
-  </si>
-  <si>
-    <t>535,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>3.919,49</t>
-  </si>
-  <si>
-    <t>6.370,00</t>
-  </si>
-  <si>
-    <t>2.180,00</t>
-  </si>
-  <si>
-    <t>2.279,00</t>
-  </si>
-  <si>
-    <t>6.353,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>339.195,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>57.262,71</t>
-  </si>
-  <si>
-    <t>660,94</t>
-  </si>
-  <si>
-    <t>5.040,00</t>
-  </si>
-  <si>
-    <t>1.994,00</t>
-  </si>
-  <si>
-    <t>312,90</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>3.024,00</t>
-  </si>
-  <si>
-    <t>8.550,00</t>
-  </si>
-  <si>
-    <t>668,00</t>
-  </si>
-  <si>
-    <t>4.255,09</t>
-  </si>
-  <si>
-    <t>741,86</t>
-  </si>
-  <si>
-    <t>1.766,00</t>
-  </si>
-  <si>
-    <t>1.957,16</t>
-  </si>
-  <si>
-    <t>2.093,70</t>
-  </si>
-  <si>
-    <t>86,16</t>
-  </si>
-  <si>
-    <t>137,38</t>
-  </si>
-  <si>
-    <t>152,58</t>
-  </si>
-  <si>
-    <t>305,55</t>
-  </si>
-  <si>
-    <t>264.409,50</t>
-  </si>
-  <si>
-    <t>8.712,00</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.989,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>19.653,24</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>37,50</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>3.542,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>2.994,75</t>
-  </si>
-  <si>
-    <t>3.751,00</t>
-  </si>
-  <si>
-    <t>2.946,38</t>
-  </si>
-  <si>
-    <t>3.848,98</t>
-  </si>
-  <si>
-    <t>5.370,70</t>
-  </si>
-  <si>
-    <t>28.930,00</t>
-  </si>
-  <si>
-    <t>534,96</t>
-  </si>
-  <si>
-    <t>529,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>3.664,47</t>
-  </si>
-  <si>
-    <t>1.846,96</t>
-  </si>
-  <si>
-    <t>1.482,71</t>
-  </si>
-  <si>
-    <t>3.730,76</t>
-  </si>
-  <si>
-    <t>843,99</t>
-  </si>
-  <si>
-    <t>82,35</t>
-  </si>
-  <si>
-    <t>1.624,35</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>17.667,51</t>
-  </si>
-  <si>
-    <t>610,00</t>
-  </si>
-  <si>
-    <t>10.564,05</t>
-  </si>
-  <si>
-    <t>561,90</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>5.484,00</t>
-  </si>
-  <si>
-    <t>6.009,70</t>
-  </si>
-  <si>
-    <t>8.827,99</t>
-  </si>
-  <si>
-    <t>1.140,78</t>
-  </si>
-  <si>
-    <t>666,40</t>
-  </si>
-  <si>
-    <t>73,09</t>
-  </si>
-  <si>
-    <t>118,80</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>51.609,00</t>
-  </si>
-  <si>
-    <t>9.837,49</t>
-  </si>
-  <si>
-    <t>3.646,00</t>
-  </si>
-  <si>
-    <t>1.024,00</t>
-  </si>
-  <si>
-    <t>1.170,00</t>
-  </si>
-  <si>
-    <t>1.833,00</t>
-  </si>
-  <si>
-    <t>664,46</t>
-  </si>
-  <si>
-    <t>11.830,95</t>
-  </si>
-  <si>
-    <t>931,47</t>
-  </si>
-  <si>
-    <t>1.239,04</t>
-  </si>
-  <si>
-    <t>17.800,00</t>
-  </si>
-  <si>
-    <t>1.330,00</t>
-  </si>
-  <si>
-    <t>24.900,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>223.656,91</t>
-  </si>
-  <si>
-    <t>16.850,00</t>
-  </si>
-  <si>
-    <t>68.000,00</t>
-  </si>
-  <si>
-    <t>99.900,00</t>
-  </si>
-  <si>
-    <t>2.820,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.860,00</t>
+    <t>4516.00</t>
+  </si>
+  <si>
+    <t>20340.21</t>
+  </si>
+  <si>
+    <t>249977.00</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>1490.00</t>
+  </si>
+  <si>
+    <t>180.48</t>
+  </si>
+  <si>
+    <t>15420.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>178588.01</t>
+  </si>
+  <si>
+    <t>78935.95</t>
+  </si>
+  <si>
+    <t>7482.50</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>54839.53</t>
+  </si>
+  <si>
+    <t>6293.00</t>
+  </si>
+  <si>
+    <t>6725.80</t>
+  </si>
+  <si>
+    <t>24264.27</t>
+  </si>
+  <si>
+    <t>1371.50</t>
+  </si>
+  <si>
+    <t>15193.67</t>
+  </si>
+  <si>
+    <t>14715.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>341.00</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>713.70</t>
+  </si>
+  <si>
+    <t>354.65</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>4744.00</t>
+  </si>
+  <si>
+    <t>522.15</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>43295.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>72594.26</t>
+  </si>
+  <si>
+    <t>1304.90</t>
+  </si>
+  <si>
+    <t>2568.42</t>
+  </si>
+  <si>
+    <t>269.44</t>
+  </si>
+  <si>
+    <t>323.64</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>50190.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>50.30</t>
+  </si>
+  <si>
+    <t>33783.00</t>
+  </si>
+  <si>
+    <t>958.74</t>
+  </si>
+  <si>
+    <t>649.00</t>
+  </si>
+  <si>
+    <t>619.00</t>
+  </si>
+  <si>
+    <t>53629.97</t>
+  </si>
+  <si>
+    <t>222.99</t>
+  </si>
+  <si>
+    <t>5105.03</t>
+  </si>
+  <si>
+    <t>1720.00</t>
+  </si>
+  <si>
+    <t>9273.50</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>2334.57</t>
+  </si>
+  <si>
+    <t>6341.42</t>
+  </si>
+  <si>
+    <t>6766.60</t>
+  </si>
+  <si>
+    <t>47786.10</t>
+  </si>
+  <si>
+    <t>4935.50</t>
+  </si>
+  <si>
+    <t>33100.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>4716.35</t>
+  </si>
+  <si>
+    <t>109.80</t>
+  </si>
+  <si>
+    <t>423.50</t>
+  </si>
+  <si>
+    <t>32256.00</t>
+  </si>
+  <si>
+    <t>12082.72</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>608.14</t>
+  </si>
+  <si>
+    <t>3206.84</t>
+  </si>
+  <si>
+    <t>620.77</t>
+  </si>
+  <si>
+    <t>2230.30</t>
+  </si>
+  <si>
+    <t>645.97</t>
+  </si>
+  <si>
+    <t>3082.00</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>2641.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>14560.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>12216.34</t>
+  </si>
+  <si>
+    <t>43010.74</t>
+  </si>
+  <si>
+    <t>525.71</t>
+  </si>
+  <si>
+    <t>39.30</t>
+  </si>
+  <si>
+    <t>1667.01</t>
+  </si>
+  <si>
+    <t>96.71</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>36106.68</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>20890.00</t>
+  </si>
+  <si>
+    <t>5292.50</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>10960.00</t>
+  </si>
+  <si>
+    <t>7457.00</t>
+  </si>
+  <si>
+    <t>1593.64</t>
+  </si>
+  <si>
+    <t>15641.00</t>
+  </si>
+  <si>
+    <t>1480.50</t>
+  </si>
+  <si>
+    <t>6875.00</t>
+  </si>
+  <si>
+    <t>33.10</t>
+  </si>
+  <si>
+    <t>5127.00</t>
+  </si>
+  <si>
+    <t>3179.62</t>
+  </si>
+  <si>
+    <t>3854.00</t>
+  </si>
+  <si>
+    <t>71.50</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>92500.00</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>2376.44</t>
+  </si>
+  <si>
+    <t>55.37</t>
+  </si>
+  <si>
+    <t>293.30</t>
+  </si>
+  <si>
+    <t>4030.00</t>
+  </si>
+  <si>
+    <t>719.00</t>
+  </si>
+  <si>
+    <t>6011.41</t>
+  </si>
+  <si>
+    <t>7488.99</t>
+  </si>
+  <si>
+    <t>3351.75</t>
+  </si>
+  <si>
+    <t>2292.00</t>
+  </si>
+  <si>
+    <t>2135.75</t>
+  </si>
+  <si>
+    <t>157.32</t>
+  </si>
+  <si>
+    <t>3760.85</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>701.43</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>180.17</t>
+  </si>
+  <si>
+    <t>56.44</t>
+  </si>
+  <si>
+    <t>20688.00</t>
+  </si>
+  <si>
+    <t>535.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>3919.49</t>
+  </si>
+  <si>
+    <t>6370.00</t>
+  </si>
+  <si>
+    <t>2180.00</t>
+  </si>
+  <si>
+    <t>2279.00</t>
+  </si>
+  <si>
+    <t>6353.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>339195.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>57262.71</t>
+  </si>
+  <si>
+    <t>660.94</t>
+  </si>
+  <si>
+    <t>5040.00</t>
+  </si>
+  <si>
+    <t>1994.00</t>
+  </si>
+  <si>
+    <t>312.90</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>3024.00</t>
+  </si>
+  <si>
+    <t>8550.00</t>
+  </si>
+  <si>
+    <t>668.00</t>
+  </si>
+  <si>
+    <t>4255.09</t>
+  </si>
+  <si>
+    <t>741.86</t>
+  </si>
+  <si>
+    <t>1766.00</t>
+  </si>
+  <si>
+    <t>1957.16</t>
+  </si>
+  <si>
+    <t>2093.70</t>
+  </si>
+  <si>
+    <t>86.16</t>
+  </si>
+  <si>
+    <t>137.38</t>
+  </si>
+  <si>
+    <t>152.58</t>
+  </si>
+  <si>
+    <t>305.55</t>
+  </si>
+  <si>
+    <t>264409.50</t>
+  </si>
+  <si>
+    <t>8712.00</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1989.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>19653.24</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>3542.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>2994.75</t>
+  </si>
+  <si>
+    <t>3751.00</t>
+  </si>
+  <si>
+    <t>2946.38</t>
+  </si>
+  <si>
+    <t>3848.98</t>
+  </si>
+  <si>
+    <t>5370.70</t>
+  </si>
+  <si>
+    <t>28930.00</t>
+  </si>
+  <si>
+    <t>534.96</t>
+  </si>
+  <si>
+    <t>529.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>3664.47</t>
+  </si>
+  <si>
+    <t>1846.96</t>
+  </si>
+  <si>
+    <t>1482.71</t>
+  </si>
+  <si>
+    <t>3730.76</t>
+  </si>
+  <si>
+    <t>843.99</t>
+  </si>
+  <si>
+    <t>82.35</t>
+  </si>
+  <si>
+    <t>1624.35</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>17667.51</t>
+  </si>
+  <si>
+    <t>610.00</t>
+  </si>
+  <si>
+    <t>10564.05</t>
+  </si>
+  <si>
+    <t>561.90</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>5484.00</t>
+  </si>
+  <si>
+    <t>6009.70</t>
+  </si>
+  <si>
+    <t>8827.99</t>
+  </si>
+  <si>
+    <t>1140.78</t>
+  </si>
+  <si>
+    <t>666.40</t>
+  </si>
+  <si>
+    <t>73.09</t>
+  </si>
+  <si>
+    <t>118.80</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>51609.00</t>
+  </si>
+  <si>
+    <t>9837.49</t>
+  </si>
+  <si>
+    <t>3646.00</t>
+  </si>
+  <si>
+    <t>1024.00</t>
+  </si>
+  <si>
+    <t>1170.00</t>
+  </si>
+  <si>
+    <t>1833.00</t>
+  </si>
+  <si>
+    <t>664.46</t>
+  </si>
+  <si>
+    <t>11830.95</t>
+  </si>
+  <si>
+    <t>931.47</t>
+  </si>
+  <si>
+    <t>1239.04</t>
+  </si>
+  <si>
+    <t>17800.00</t>
+  </si>
+  <si>
+    <t>1330.00</t>
+  </si>
+  <si>
+    <t>24900.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>223656.91</t>
+  </si>
+  <si>
+    <t>16850.00</t>
+  </si>
+  <si>
+    <t>68000.00</t>
+  </si>
+  <si>
+    <t>99900.00</t>
+  </si>
+  <si>
+    <t>2820.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1860.00</t>
   </si>
 </sst>
 </file>
